--- a/Ataques Seleccionados/Lista-Ataques-ICS_v7.xlsx
+++ b/Ataques Seleccionados/Lista-Ataques-ICS_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\UNIVERSIDAD\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB994FE-B59C-4D64-8BBB-D4B39CD03518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE56C0-16CB-44EF-929B-AC23B5D0394A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,6 +1712,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,18 +1756,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2433,7 +2433,7 @@
       <c r="C12" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="103">
         <v>7</v>
       </c>
       <c r="E12" s="59" t="s">
@@ -3154,7 +3154,7 @@
         <v>80</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>19</v>
@@ -3707,7 +3707,7 @@
       <c r="D52" s="16">
         <v>34</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="102" t="s">
         <v>177</v>
       </c>
       <c r="F52" s="17" t="s">
@@ -3739,7 +3739,7 @@
       <c r="D53" s="16">
         <v>35</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="102" t="s">
         <v>178</v>
       </c>
       <c r="F53" s="17" t="s">
@@ -3771,7 +3771,7 @@
       <c r="D54" s="16">
         <v>36</v>
       </c>
-      <c r="E54" s="113" t="s">
+      <c r="E54" s="102" t="s">
         <v>226</v>
       </c>
       <c r="F54" s="17" t="s">
@@ -3966,13 +3966,13 @@
       <c r="E60" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="F60" s="111" t="s">
+      <c r="F60" s="100" t="s">
         <v>220</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H60" s="111" t="s">
+      <c r="H60" s="100" t="s">
         <v>221</v>
       </c>
       <c r="I60" s="30" t="s">
@@ -3981,7 +3981,7 @@
       <c r="J60" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K60" s="111" t="s">
+      <c r="K60" s="100" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4850,15 +4850,15 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="100" t="s">
+      <c r="B91" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="101"/>
+      <c r="C91" s="105"/>
       <c r="D91" s="51"/>
-      <c r="E91" s="101" t="s">
+      <c r="E91" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="F91" s="105"/>
+      <c r="F91" s="109"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
@@ -4870,10 +4870,10 @@
         <v>116</v>
       </c>
       <c r="D92" s="55"/>
-      <c r="E92" s="102" t="s">
+      <c r="E92" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="F92" s="106" t="s">
+      <c r="F92" s="110" t="s">
         <v>151</v>
       </c>
       <c r="G92" s="4"/>
@@ -4887,8 +4887,8 @@
         <v>117</v>
       </c>
       <c r="D93" s="53"/>
-      <c r="E93" s="103"/>
-      <c r="F93" s="107"/>
+      <c r="E93" s="107"/>
+      <c r="F93" s="111"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
@@ -4900,10 +4900,10 @@
         <v>56</v>
       </c>
       <c r="D94" s="53"/>
-      <c r="E94" s="103" t="s">
+      <c r="E94" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="F94" s="107" t="s">
+      <c r="F94" s="111" t="s">
         <v>152</v>
       </c>
       <c r="G94" s="4"/>
@@ -4917,8 +4917,8 @@
         <v>119</v>
       </c>
       <c r="D95" s="54"/>
-      <c r="E95" s="104"/>
-      <c r="F95" s="108"/>
+      <c r="E95" s="108"/>
+      <c r="F95" s="112"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
@@ -4936,7 +4936,7 @@
       <c r="B98" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="E98" s="112" t="s">
+      <c r="E98" s="101" t="s">
         <v>204</v>
       </c>
       <c r="F98" s="4"/>
@@ -5148,10 +5148,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="39.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="113"/>
     </row>
     <row r="3" spans="2:15" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="47" t="s">
@@ -6801,10 +6801,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="110"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
